--- a/componant power/gantt-project.xlsx
+++ b/componant power/gantt-project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>เริ่ม</t>
   </si>
@@ -48,13 +48,22 @@
     <t>Add content in website language EN</t>
   </si>
   <si>
-    <t>UAT application</t>
-  </si>
-  <si>
     <t>Setup application  to production</t>
   </si>
   <si>
     <t>Create CMS system</t>
+  </si>
+  <si>
+    <t>Design template</t>
+  </si>
+  <si>
+    <t>get requirement</t>
+  </si>
+  <si>
+    <t>UAT application (Testing)</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -91,8 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,76 +407,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42079</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42079</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42082</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42091</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42092</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42111</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42112</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42131</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42151</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42152</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42157</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42158</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42164</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42165</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42179</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42180</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42195</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="1">
+        <v>42196</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42198</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42199</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42203</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>11</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42204</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42204</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <f>SUM(B3:B14)</f>
+        <v>124</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F3:F14)</f>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
